--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:32:32+00:00</t>
+    <t>2022-08-23T22:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T22:37:21+00:00</t>
+    <t>2022-08-24T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T23:51:36+00:00</t>
+    <t>2022-09-01T16:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,367 +280,371 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>PractitionerRole.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>PractitionerRole.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>endReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-end-reason-extension}
+</t>
+  </si>
+  <si>
+    <t>BC End Reason Extension</t>
+  </si>
+  <si>
+    <t>Tracking end reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-owner-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Owner Extension</t>
+  </si>
+  <si>
+    <t>Tracking the owner.</t>
+  </si>
+  <si>
+    <t>typeExtension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-relationship-type-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Practitioner to Organization or Practitioner to Practitioner Type Extension.</t>
+  </si>
+  <si>
+    <t>The relationship type of a Practitioner to Organization or Practitioner to Practitioner relationship.</t>
+  </si>
+  <si>
+    <t>locRelationshipType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-location-relationship-type-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Practitioner to Location Type Extension.</t>
+  </si>
+  <si>
+    <t>The relationship type of a Practitioner to Location relationship.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PRD-8/9 / PRA-5.4</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-organization)
+</t>
+  </si>
+  <si>
+    <t>Organization where the roles are available</t>
+  </si>
+  <si>
+    <t>The organization where the Practitioner performs the roles associated.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>PractitionerRole.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>PractitionerRole.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>PractitionerRole.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>endReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-end-reason-extension}
-</t>
-  </si>
-  <si>
-    <t>BC End Reason Extension</t>
-  </si>
-  <si>
-    <t>Tracking end reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-owner-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Owner Extension</t>
-  </si>
-  <si>
-    <t>Tracking the owner.</t>
-  </si>
-  <si>
-    <t>typeExtension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-relationship-type-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Practitioner to Organization or Practitioner to Practitioner Type Extension.</t>
-  </si>
-  <si>
-    <t>The relationship type of a Practitioner to Organization or Practitioner to Practitioner relationship.</t>
-  </si>
-  <si>
-    <t>locRelationshipType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-location-relationship-type-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Practitioner to Location Type Extension.</t>
-  </si>
-  <si>
-    <t>The relationship type of a Practitioner to Location relationship.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>PRD-8/9 / PRA-5.4</t>
-  </si>
-  <si>
-    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
-  </si>
-  <si>
-    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-practitioner)
-</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-organization)
-</t>
-  </si>
-  <si>
-    <t>Organization where the roles are available</t>
-  </si>
-  <si>
-    <t>The organization where the Practitioner performs the roles associated.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3536,13 +3540,13 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3593,7 +3597,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3611,7 +3615,7 @@
         <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3622,7 +3626,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3648,10 +3652,10 @@
         <v>130</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>158</v>
@@ -3695,7 +3699,7 @@
         <v>133</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>75</v>
@@ -3704,7 +3708,7 @@
         <v>134</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3722,7 +3726,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3733,7 +3737,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3756,16 +3760,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3815,7 +3819,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3824,7 +3828,7 @@
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -3844,7 +3848,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3870,13 +3874,13 @@
         <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3902,13 +3906,13 @@
         <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>75</v>
@@ -3926,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3955,7 +3959,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3981,13 +3985,13 @@
         <v>162</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4037,7 +4041,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4059,7 @@
         <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4066,7 +4070,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4089,16 +4093,16 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4148,7 +4152,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4177,7 +4181,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4200,19 +4204,19 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>75</v>
@@ -4237,13 +4241,13 @@
         <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>75</v>
@@ -4261,7 +4265,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4276,10 +4280,10 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>187</v>
@@ -4290,7 +4294,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4313,13 +4317,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4349,10 +4353,10 @@
         <v>109</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>75</v>
@@ -4370,7 +4374,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4385,13 +4389,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -4399,7 +4403,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4422,13 +4426,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4479,7 +4483,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4497,18 +4501,18 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4531,13 +4535,13 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4588,7 +4592,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4603,10 +4607,10 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4617,7 +4621,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4640,17 +4644,17 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -4699,7 +4703,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4711,16 +4715,16 @@
         <v>141</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4751,16 +4755,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4810,7 +4814,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4828,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4839,7 +4843,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4862,13 +4866,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4919,7 +4923,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4937,7 +4941,7 @@
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4948,7 +4952,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4974,10 +4978,10 @@
         <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>158</v>
@@ -5030,7 +5034,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5048,7 +5052,7 @@
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5059,11 +5063,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5085,10 +5089,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>158</v>
@@ -5143,7 +5147,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5172,7 +5176,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5198,10 +5202,10 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5228,13 +5232,13 @@
         <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>75</v>
@@ -5252,7 +5256,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5270,7 +5274,7 @@
         <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5281,7 +5285,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5307,10 +5311,10 @@
         <v>171</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5379,7 +5383,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5413,16 +5417,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5490,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5501,7 +5505,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5524,16 +5528,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5583,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5601,7 +5605,7 @@
         <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5612,7 +5616,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5635,13 +5639,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5692,7 +5696,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5710,7 +5714,7 @@
         <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5721,7 +5725,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5744,13 +5748,13 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5801,7 +5805,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5819,7 +5823,7 @@
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5830,7 +5834,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5856,10 +5860,10 @@
         <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>158</v>
@@ -5912,7 +5916,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5930,7 +5934,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5941,11 +5945,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5967,10 +5971,10 @@
         <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>158</v>
@@ -6025,7 +6029,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6054,7 +6058,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6077,13 +6081,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6134,7 +6138,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>85</v>
@@ -6152,7 +6156,7 @@
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6163,7 +6167,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6189,10 +6193,10 @@
         <v>181</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6243,7 +6247,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6261,7 +6265,7 @@
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6272,7 +6276,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6295,13 +6299,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6352,7 +6356,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6370,7 +6374,7 @@
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6381,7 +6385,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6404,17 +6408,17 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6463,7 +6467,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6481,7 +6485,7 @@
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+    <t>http://hl7.org/fhir/ca/baseline/StructureDefinition/profile-practitionerrole-registry</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -252,14 +252,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Roles/organizations the practitioner is associated with</t>
-  </si>
-  <si>
-    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
+    <t>PractitionerRole Registry Profile</t>
+  </si>
+  <si>
+    <t>The PractitionerRoleRegistry Profile is based upon the CA Baseline FHIR PractitionerRole profile for general use</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -442,6 +438,42 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-rolestatus}
+</t>
+  </si>
+  <si>
+    <t>Role status extension</t>
+  </si>
+  <si>
+    <t>Represents the defined possible states of the Role, as defined by the HL7v3 Role class state machine.</t>
+  </si>
+  <si>
+    <t>The roleStatus extension has been flagged for further implementer feedback regarding whether it should be considered a modifier extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>RoleStatus</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-statusreason}
+</t>
+  </si>
+  <si>
+    <t>Role status reason extension</t>
+  </si>
+  <si>
+    <t>Represents the textual description for the possible states of the Role, as defined by the HL7v3 Role class state machine.</t>
+  </si>
+  <si>
     <t>endReason</t>
   </si>
   <si>
@@ -455,10 +487,6 @@
     <t>Tracking end reason.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -524,201 +552,202 @@
     <t>PractitionerRole.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://hl7.org/fhir/ca/baseline/StructureDefinition/profile-identifier}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>This element is considered SHOULD support and it is recommended to have an identifier associated with PractitionerRole to assist in searches, not every implementation (especially legacy implementations that combined both concepts of practitioner &amp; practitionerRole) will include an identifier practioner role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PRD-8/9 / PRA-5.4</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-organization)
+</t>
+  </si>
+  <si>
+    <t>Organization where the roles are available</t>
+  </si>
+  <si>
+    <t>The organization where the Practitioner performs the roles associated.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>PRD-8/9 / PRA-5.4</t>
-  </si>
-  <si>
-    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
-  </si>
-  <si>
-    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-practitioner)
-</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-organization)
-</t>
-  </si>
-  <si>
-    <t>Organization where the roles are available</t>
-  </si>
-  <si>
-    <t>The organization where the Practitioner performs the roles associated.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>PractitionerRole.organization.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -761,25 +790,22 @@
 </t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
+    <t>HealthcareProviderRoleType</t>
   </si>
   <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
   </si>
   <si>
-    <t>A person may have more than one role.</t>
+    <t>The binding strength of this element is [Preferred](https://www.hl7.org/fhir/terminologies.html#strength), meaning that codes are encouraged to draw from the HealthcareProviderRoleType code system for interoperability purposes but are not required to do so to be considered conformant.</t>
   </si>
   <si>
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role a person plays representing an organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+    <t>A role type that is used to categorize an entity that delivers health care in an expected and professional manner to an entity in need of health care services. Examples: Registered Nurse, Chiropractor, Physician, Custodial Care Clinic.</t>
+  </si>
+  <si>
+    <t>https://fhir.infoway-inforoute.ca/ValueSet/healthcareproviderroletype</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -791,16 +817,19 @@
     <t>PractitionerRole.specialty</t>
   </si>
   <si>
-    <t>Specific specialty of the practitioner</t>
+    <t>PractitionerSpecialty</t>
   </si>
   <si>
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>Specific specialty associated with the agency.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>The binding strength of this element is [Preferred](https://www.hl7.org/fhir/terminologies.html#strength), meaning that codes are encouraged to draw from the PractitionerSpecialty code system for interoperability purposes but are not required to do so to be considered conformant.</t>
+  </si>
+  <si>
+    <t>Defines the clinical, medical, surgical or other healthcare-related service specialty of a practitioner who interacts, treats or provides such services to or for a patient.</t>
+  </si>
+  <si>
+    <t>https://fhir.infoway-inforoute.ca/ValueSet/practitionerspecialty</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -882,6 +911,143 @@
     <t>ContactPoint</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
@@ -931,9 +1097,6 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The days of the week.</t>
@@ -1354,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1386,8 +1549,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.62109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.75" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="214.9453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1399,7 +1562,7 @@
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="194.47265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1617,16 +1780,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>75</v>
@@ -1634,7 +1797,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1645,28 +1808,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1716,13 +1879,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1745,7 +1908,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1756,25 +1919,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1825,19 +1988,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1854,7 +2017,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1865,28 +2028,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1936,19 +2099,19 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1965,7 +2128,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1976,7 +2139,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1988,16 +2151,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2023,43 +2186,43 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2076,18 +2239,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -2099,16 +2262,16 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2158,25 +2321,25 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2187,11 +2350,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2210,16 +2373,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2269,7 +2432,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2287,7 +2450,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2298,7 +2461,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2321,13 +2484,13 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2366,17 +2529,17 @@
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2388,27 +2551,27 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>75</v>
@@ -2418,10 +2581,10 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2430,15 +2593,17 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -2487,7 +2652,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2499,13 +2664,13 @@
         <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2514,12 +2679,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>75</v>
@@ -2529,10 +2694,10 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2541,13 +2706,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2598,7 +2763,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2610,7 +2775,7 @@
         <v>141</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2627,10 +2792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>75</v>
@@ -2640,11 +2805,11 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2652,13 +2817,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2709,7 +2874,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2718,10 +2883,10 @@
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -2738,10 +2903,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>75</v>
@@ -2751,11 +2916,11 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2763,13 +2928,13 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2820,7 +2985,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2829,10 +2994,10 @@
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -2847,45 +3012,43 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C14" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2933,7 +3096,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2945,26 +3108,28 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2973,30 +3138,28 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3044,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3056,66 +3219,64 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3159,36 +3320,36 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3199,29 +3360,31 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -3270,36 +3433,36 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3307,35 +3470,41 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Q18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3379,36 +3548,36 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3419,28 +3588,30 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3488,36 +3659,36 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3525,28 +3696,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3597,25 +3768,25 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3624,42 +3795,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>75</v>
@@ -3696,37 +3865,37 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3737,7 +3906,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3748,7 +3917,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>75</v>
@@ -3757,20 +3926,18 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>75</v>
@@ -3819,25 +3986,25 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3848,18 +4015,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -3868,19 +4035,19 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3906,49 +4073,49 @@
         <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3959,7 +4126,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3970,28 +4137,28 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4041,25 +4208,25 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4070,7 +4237,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4081,28 +4248,28 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4128,13 +4295,13 @@
         <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>75</v>
@@ -4152,25 +4319,25 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4181,7 +4348,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4192,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
@@ -4201,23 +4368,21 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4241,13 +4406,13 @@
         <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>75</v>
@@ -4265,28 +4430,28 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4294,7 +4459,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4305,7 +4470,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -4314,18 +4479,20 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4350,13 +4517,13 @@
         <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>75</v>
@@ -4374,36 +4541,36 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4414,28 +4581,32 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4459,13 +4630,13 @@
         <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4483,7 +4654,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4495,24 +4666,24 @@
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4523,27 +4694,29 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>75</v>
@@ -4568,13 +4741,13 @@
         <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
@@ -4592,7 +4765,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4604,16 +4777,16 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -4621,7 +4794,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4632,30 +4805,28 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4703,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4712,27 +4883,27 @@
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4755,17 +4926,15 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -4814,7 +4983,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4826,13 +4995,13 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4841,9 +5010,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4854,11 +5023,11 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4866,16 +5035,18 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4923,28 +5094,28 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -4952,18 +5123,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>75</v>
@@ -4975,17 +5146,15 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -5034,25 +5203,25 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5063,11 +5232,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5080,26 +5249,24 @@
         <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5135,19 +5302,19 @@
         <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5159,13 +5326,13 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5176,7 +5343,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5184,10 +5351,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -5196,16 +5363,16 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5232,52 +5399,52 @@
         <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -5285,7 +5452,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5293,31 +5460,35 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5365,28 +5536,28 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5565,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5405,30 +5576,32 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5452,13 +5625,13 @@
         <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>75</v>
@@ -5476,28 +5649,28 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -5505,7 +5678,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5516,28 +5689,28 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5587,25 +5760,25 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5616,7 +5789,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5627,7 +5800,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>75</v>
@@ -5636,16 +5809,16 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5696,28 +5869,28 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -5725,7 +5898,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5736,7 +5909,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>75</v>
@@ -5748,15 +5921,17 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>75</v>
@@ -5805,25 +5980,25 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5834,18 +6009,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -5857,17 +6032,15 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -5916,25 +6089,25 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5945,11 +6118,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5962,26 +6135,24 @@
         <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6029,7 +6200,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6041,13 +6212,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6058,39 +6229,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6138,25 +6313,25 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6167,7 +6342,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6178,7 +6353,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>75</v>
@@ -6190,13 +6365,13 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6223,13 +6398,13 @@
         <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>75</v>
@@ -6247,25 +6422,25 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6276,7 +6451,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6287,7 +6462,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -6299,13 +6474,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6356,25 +6531,25 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6385,7 +6560,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6396,7 +6571,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6408,18 +6583,18 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6467,35 +6642,1026 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM46">
+  <autoFilter ref="A1:AM55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6505,7 +7671,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:17:10+00:00</t>
+    <t>2022-11-14T22:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:35:25+00:00</t>
+    <t>2022-11-15T19:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T19:54:41+00:00</t>
+    <t>2022-11-16T00:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:01:38+00:00</t>
+    <t>2022-11-16T00:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:00+00:00</t>
+    <t>2022-11-16T00:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:48+00:00</t>
+    <t>2022-11-17T20:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T20:58:34+00:00</t>
+    <t>2022-11-17T21:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:31:13+00:00</t>
+    <t>2022-11-17T21:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:33:43+00:00</t>
+    <t>2022-11-17T22:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T22:26:34+00:00</t>
+    <t>2022-11-17T23:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T23:34:37+00:00</t>
+    <t>2022-11-18T20:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T20:35:33+00:00</t>
+    <t>2022-11-29T21:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T21:08:03+00:00</t>
+    <t>2022-11-30T16:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T16:25:41+00:00</t>
+    <t>2022-11-30T17:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T17:04:23+00:00</t>
+    <t>2022-11-30T20:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-role-relationships</t>
+    <t>http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-role-relationships</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:32:54+00:00</t>
+    <t>2022-11-30T20:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -477,7 +477,7 @@
     <t>endReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-end-reason-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-end-reason-extension}
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-owner-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-owner-extension}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>typeExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-relationship-type-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-relationship-type-extension}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>locRelationshipType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-location-relationship-type-extension}
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-location-relationship-type-extension}
 </t>
   </si>
   <si>
@@ -639,7 +639,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-practitioner)
+    <t xml:space="preserve">Reference(http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-practitioner)
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-organization)
+    <t xml:space="preserve">Reference(http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-organization)
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-location)
+    <t xml:space="preserve">Reference(http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-location)
 </t>
   </si>
   <si>
@@ -885,7 +885,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-contactPoint}
+    <t xml:space="preserve">ContactPoint {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-contactPoint}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:54:53+00:00</t>
+    <t>2022-11-30T21:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.9</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:55:32+00:00</t>
+    <t>2022-12-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:15:43+00:00</t>
+    <t>2022-12-12T23:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T23:25:59+00:00</t>
+    <t>2022-12-13T16:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T16:34:13+00:00</t>
+    <t>2022-12-13T17:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T17:07:06+00:00</t>
+    <t>2022-12-13T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T19:55:00+00:00</t>
+    <t>2022-12-16T17:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -438,6 +441,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:status</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -461,6 +467,9 @@
     <t>RoleStatus</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:statusReason</t>
+  </si>
+  <si>
     <t>statusReason</t>
   </si>
   <si>
@@ -474,6 +483,9 @@
     <t>Represents the textual description for the possible states of the Role, as defined by the HL7v3 Role class state machine.</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:endReason</t>
+  </si>
+  <si>
     <t>endReason</t>
   </si>
   <si>
@@ -487,6 +499,9 @@
     <t>Tracking end reason.</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:owner</t>
+  </si>
+  <si>
     <t>owner</t>
   </si>
   <si>
@@ -500,6 +515,9 @@
     <t>Tracking the owner.</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:typeExtension</t>
+  </si>
+  <si>
     <t>typeExtension</t>
   </si>
   <si>
@@ -511,6 +529,9 @@
   </si>
   <si>
     <t>The relationship type of a Practitioner to Organization or Practitioner to Practitioner relationship.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:locRelationshipType</t>
   </si>
   <si>
     <t>locRelationshipType</t>
@@ -1517,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1527,44 +1548,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="214.9453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="214.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1685,105 +1706,108 @@
       <c r="AM1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>81</v>
@@ -1792,32 +1816,35 @@
         <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>86</v>
@@ -1831,107 +1858,110 @@
       <c r="M3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>93</v>
@@ -1939,108 +1969,111 @@
       <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -2051,107 +2084,110 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -2162,31 +2198,31 @@
       <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>109</v>
@@ -2195,74 +2231,77 @@
         <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>115</v>
@@ -2273,107 +2312,110 @@
       <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>123</v>
@@ -2384,107 +2426,110 @@
       <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>130</v>
@@ -2492,5176 +2537,5317 @@
       <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>195</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>75</v>
+      <c r="L29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>276</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>304</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>315</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>324</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>128</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>372</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM55">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T17:01:23+00:00</t>
+    <t>2022-12-16T22:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T22:41:35+00:00</t>
+    <t>2022-12-19T22:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T22:53:23+00:00</t>
+    <t>2022-12-20T17:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="387">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>PractitionerRole Registry Profile</t>
@@ -1738,13 +1742,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1810,13 +1814,13 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1824,10 +1828,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1838,7 +1842,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1847,19 +1851,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1909,13 +1913,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1952,7 +1956,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1961,16 +1965,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2021,19 +2025,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2050,10 +2054,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2064,28 +2068,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2135,19 +2139,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2164,10 +2168,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2178,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2190,16 +2194,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2225,13 +2229,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2249,19 +2253,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2278,21 +2282,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2304,16 +2308,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2363,25 +2367,25 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2392,14 +2396,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2418,16 +2422,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2477,7 +2481,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2495,7 +2499,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2506,10 +2510,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2532,13 +2536,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2577,17 +2581,17 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2599,7 +2603,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2616,13 +2620,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -2632,7 +2636,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2644,16 +2648,16 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2703,7 +2707,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2712,16 +2716,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2732,13 +2736,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2748,7 +2752,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2760,13 +2764,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2817,7 +2821,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2826,10 +2830,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2846,13 +2850,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2862,10 +2866,10 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -2874,13 +2878,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2931,7 +2935,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2943,7 +2947,7 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2960,13 +2964,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2976,10 +2980,10 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -2988,13 +2992,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3045,7 +3049,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3057,7 +3061,7 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3074,13 +3078,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3090,10 +3094,10 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -3102,13 +3106,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3159,7 +3163,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3171,7 +3175,7 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3188,13 +3192,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3204,10 +3208,10 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
@@ -3216,13 +3220,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3273,7 +3277,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3285,7 +3289,7 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3302,14 +3306,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3322,25 +3326,25 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3389,7 +3393,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3401,13 +3405,13 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3418,10 +3422,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3444,19 +3448,19 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3505,7 +3509,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3514,19 +3518,19 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3534,10 +3538,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3548,7 +3552,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3557,105 +3561,105 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3666,29 +3670,29 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3737,39 +3741,39 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3777,28 +3781,28 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3849,25 +3853,25 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3878,10 +3882,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3892,25 +3896,25 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3961,25 +3965,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3990,10 +3994,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4004,7 +4008,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4016,13 +4020,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4073,13 +4077,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4091,7 +4095,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4102,14 +4106,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4128,16 +4132,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4175,19 +4179,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4199,13 +4203,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4216,10 +4220,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4230,7 +4234,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4239,19 +4243,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4301,25 +4305,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4330,10 +4334,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4353,19 +4357,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4415,25 +4419,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4444,10 +4448,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4458,7 +4462,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4467,19 +4471,19 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4529,25 +4533,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4572,7 +4576,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4581,19 +4585,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4643,25 +4647,25 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4672,10 +4676,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4695,22 +4699,22 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4735,13 +4739,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4759,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4771,16 +4775,16 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4788,10 +4792,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4805,25 +4809,25 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4849,13 +4853,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4873,7 +4877,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4885,16 +4889,16 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4902,10 +4906,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4916,25 +4920,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4985,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4997,27 +5001,27 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5040,13 +5044,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5097,7 +5101,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5109,13 +5113,13 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5126,10 +5130,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5143,7 +5147,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -5152,17 +5156,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5211,7 +5215,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5220,19 +5224,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5240,10 +5244,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5254,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5266,13 +5270,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5323,13 +5327,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5341,7 +5345,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5352,14 +5356,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5378,16 +5382,16 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5425,19 +5429,19 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5449,13 +5453,13 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5466,10 +5470,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5477,10 +5481,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5489,16 +5493,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5525,13 +5529,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5549,28 +5553,28 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5578,10 +5582,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5589,10 +5593,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5601,22 +5605,22 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5665,28 +5669,28 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5694,10 +5698,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5708,31 +5712,31 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5757,13 +5761,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5781,28 +5785,28 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5810,10 +5814,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5824,7 +5828,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5833,19 +5837,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5895,25 +5899,25 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5924,10 +5928,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5938,7 +5942,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5947,16 +5951,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6007,28 +6011,28 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6036,10 +6040,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6062,16 +6066,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6121,7 +6125,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6133,13 +6137,13 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6164,7 +6168,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6176,13 +6180,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6233,13 +6237,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6251,7 +6255,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6262,14 +6266,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6288,16 +6292,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6347,7 +6351,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6359,13 +6363,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6376,14 +6380,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6396,25 +6400,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6463,7 +6467,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6475,13 +6479,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6492,10 +6496,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6518,13 +6522,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6551,13 +6555,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6575,7 +6579,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6587,13 +6591,13 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6604,10 +6608,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6618,7 +6622,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6630,13 +6634,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6687,25 +6691,25 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6716,10 +6720,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6730,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6742,16 +6746,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6801,25 +6805,25 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6830,10 +6834,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6844,7 +6848,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6856,16 +6860,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6915,25 +6919,25 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6944,10 +6948,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6970,13 +6974,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7027,7 +7031,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7039,13 +7043,13 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7056,10 +7060,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7070,7 +7074,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7082,13 +7086,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7139,13 +7143,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7157,7 +7161,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7168,14 +7172,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7194,16 +7198,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7253,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7265,13 +7269,13 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7282,14 +7286,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7302,25 +7306,25 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7369,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7381,13 +7385,13 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7398,10 +7402,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7409,10 +7413,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7424,13 +7428,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7481,25 +7485,25 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7510,10 +7514,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7524,7 +7528,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7536,13 +7540,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7593,25 +7597,25 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7622,10 +7626,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7636,7 +7640,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7648,13 +7652,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7705,25 +7709,25 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7734,10 +7738,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7760,17 +7764,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7819,7 +7823,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7831,13 +7835,13 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T00:02:12+00:00</t>
+    <t>2023-01-26T00:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T00:24:40+00:00</t>
+    <t>2023-01-26T22:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T22:19:10+00:00</t>
+    <t>2023-01-31T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:52:42+00:00</t>
+    <t>2023-02-08T21:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:16:12+00:00</t>
+    <t>2023-02-08T21:47:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:47:45+00:00</t>
+    <t>2023-02-21T21:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:05:43+00:00</t>
+    <t>2023-02-21T22:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T22:17:26+00:00</t>
+    <t>2023-02-22T23:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T23:59:38+00:00</t>
+    <t>2023-02-23T18:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T18:05:52+00:00</t>
+    <t>2023-02-23T19:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:08:00+00:00</t>
+    <t>2023-02-23T19:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:09:50+00:00</t>
+    <t>2023-03-13T17:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T17:50:39+00:00</t>
+    <t>2023-03-16T20:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T20:48:21+00:00</t>
+    <t>2023-03-23T17:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:35:31+00:00</t>
+    <t>2023-03-23T17:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:54:25+00:00</t>
+    <t>2023-03-23T23:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T23:03:49+00:00</t>
+    <t>2023-03-24T16:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T20:46:29+00:00</t>
+    <t>2023-03-31T19:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T19:02:02+00:00</t>
+    <t>2023-04-13T21:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T21:33:55+00:00</t>
+    <t>2023-04-13T22:55:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T22:55:41+00:00</t>
+    <t>2023-04-18T21:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T21:17:28+00:00</t>
+    <t>2023-04-19T20:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T20:43:06+00:00</t>
+    <t>2023-04-19T22:41:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T22:41:00+00:00</t>
+    <t>2023-04-21T17:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:16+00:00</t>
+    <t>2023-04-21T17:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:46+00:00</t>
+    <t>2023-04-21T21:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T21:33:06+00:00</t>
+    <t>2023-05-05T19:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T19:53:30+00:00</t>
+    <t>2023-06-12T18:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,126 +124,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1346,10 +1226,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1542,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1555,11 +1435,10 @@
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="98.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1570,6288 +1449,6166 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="214.9453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="64.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>75</v>
+      <c r="AN1" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>180</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>36</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>355</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
+        <v>178</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7861,7 +7618,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T18:37:27+00:00</t>
+    <t>2023-06-12T22:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>The PractitionerRoleRegistry Profile is based upon the CA Baseline FHIR PractitionerRole profile for general use</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1568,16 +1572,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1585,10 +1589,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1599,7 +1603,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1608,19 +1612,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1670,13 +1674,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1699,10 +1703,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1713,7 +1717,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1722,16 +1726,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1782,19 +1786,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1811,10 +1815,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1825,28 +1829,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1896,19 +1900,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1925,10 +1929,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1939,7 +1943,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1951,16 +1955,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1986,13 +1990,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -2010,19 +2014,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -2039,21 +2043,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -2065,16 +2069,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2124,25 +2128,25 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>36</v>
@@ -2153,14 +2157,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2179,16 +2183,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2238,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2256,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>36</v>
@@ -2267,10 +2271,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2293,13 +2297,13 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2338,17 +2342,17 @@
         <v>36</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2360,7 +2364,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2377,13 +2381,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>36</v>
@@ -2393,7 +2397,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -2405,16 +2409,16 @@
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2464,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2473,16 +2477,16 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>36</v>
@@ -2493,13 +2497,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>36</v>
@@ -2509,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>36</v>
@@ -2521,13 +2525,13 @@
         <v>36</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2578,7 +2582,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2587,10 +2591,10 @@
         <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2607,13 +2611,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>36</v>
@@ -2623,10 +2627,10 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>36</v>
@@ -2635,13 +2639,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2692,7 +2696,7 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -2704,7 +2708,7 @@
         <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>36</v>
@@ -2721,13 +2725,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>36</v>
@@ -2737,10 +2741,10 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>36</v>
@@ -2749,13 +2753,13 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2806,7 +2810,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2818,7 +2822,7 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>36</v>
@@ -2835,13 +2839,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>36</v>
@@ -2851,10 +2855,10 @@
         <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>36</v>
@@ -2863,13 +2867,13 @@
         <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2920,7 +2924,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2932,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
@@ -2949,13 +2953,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>36</v>
@@ -2965,10 +2969,10 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>36</v>
@@ -2977,13 +2981,13 @@
         <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3034,7 +3038,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -3046,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -3063,14 +3067,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3083,25 +3087,25 @@
         <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -3150,7 +3154,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -3162,13 +3166,13 @@
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>36</v>
@@ -3179,10 +3183,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3205,19 +3209,19 @@
         <v>36</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
@@ -3266,7 +3270,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3275,19 +3279,19 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>36</v>
@@ -3295,10 +3299,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3309,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3318,105 +3322,105 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH17" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3427,29 +3431,29 @@
         <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>36</v>
@@ -3498,39 +3502,39 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3538,28 +3542,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3610,25 +3614,25 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3639,10 +3643,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3653,25 +3657,25 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3722,25 +3726,25 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>36</v>
@@ -3751,10 +3755,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3765,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
@@ -3777,13 +3781,13 @@
         <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3834,13 +3838,13 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
@@ -3852,7 +3856,7 @@
         <v>36</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>36</v>
@@ -3863,14 +3867,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3889,16 +3893,16 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3936,19 +3940,19 @@
         <v>36</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3960,13 +3964,13 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>36</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3991,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -4000,19 +4004,19 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4062,25 +4066,25 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>36</v>
@@ -4091,10 +4095,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4114,19 +4118,19 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4152,13 +4156,13 @@
         <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -4176,25 +4180,25 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>36</v>
@@ -4205,10 +4209,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4219,7 +4223,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>36</v>
@@ -4228,19 +4232,19 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4290,25 +4294,25 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4319,10 +4323,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4333,7 +4337,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -4342,19 +4346,19 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4404,25 +4408,25 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4433,10 +4437,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4456,22 +4460,22 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -4496,13 +4500,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4520,7 +4524,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -4532,16 +4536,16 @@
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>36</v>
@@ -4549,10 +4553,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4566,25 +4570,25 @@
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4610,13 +4614,13 @@
         <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
@@ -4634,7 +4638,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -4646,16 +4650,16 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>36</v>
@@ -4663,10 +4667,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4677,25 +4681,25 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4746,7 +4750,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4758,27 +4762,27 @@
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4801,13 +4805,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4858,7 +4862,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -4870,13 +4874,13 @@
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4887,10 +4891,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4904,7 +4908,7 @@
         <v>38</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>36</v>
@@ -4913,17 +4917,17 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>36</v>
@@ -4972,7 +4976,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4981,19 +4985,19 @@
         <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>36</v>
@@ -5001,10 +5005,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5015,7 +5019,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>36</v>
@@ -5027,13 +5031,13 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5084,13 +5088,13 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
@@ -5102,7 +5106,7 @@
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -5113,14 +5117,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5139,16 +5143,16 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5186,19 +5190,19 @@
         <v>36</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -5210,13 +5214,13 @@
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>36</v>
@@ -5227,10 +5231,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5238,10 +5242,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5250,16 +5254,16 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5286,13 +5290,13 @@
         <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>36</v>
@@ -5310,28 +5314,28 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>36</v>
@@ -5339,10 +5343,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5350,10 +5354,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5362,22 +5366,22 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>36</v>
@@ -5426,28 +5430,28 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>36</v>
@@ -5455,10 +5459,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5469,31 +5473,31 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>36</v>
@@ -5518,13 +5522,13 @@
         <v>36</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>36</v>
@@ -5542,28 +5546,28 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>36</v>
@@ -5571,10 +5575,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5585,7 +5589,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5594,19 +5598,19 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5656,25 +5660,25 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>36</v>
@@ -5685,10 +5689,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5699,7 +5703,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5708,16 +5712,16 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5768,28 +5772,28 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>36</v>
@@ -5797,10 +5801,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5823,16 +5827,16 @@
         <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5882,7 +5886,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5894,13 +5898,13 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>36</v>
@@ -5911,10 +5915,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5925,7 +5929,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5937,13 +5941,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5994,13 +5998,13 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
@@ -6012,7 +6016,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -6023,14 +6027,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6049,16 +6053,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6108,7 +6112,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -6120,13 +6124,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -6137,14 +6141,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6157,25 +6161,25 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6224,7 +6228,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6236,13 +6240,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6253,10 +6257,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6279,13 +6283,13 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6312,13 +6316,13 @@
         <v>36</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>36</v>
@@ -6336,7 +6340,7 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
@@ -6348,13 +6352,13 @@
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>36</v>
@@ -6365,10 +6369,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6379,7 +6383,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6391,13 +6395,13 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6448,25 +6452,25 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>36</v>
@@ -6477,10 +6481,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6491,7 +6495,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6503,16 +6507,16 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6562,25 +6566,25 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>36</v>
@@ -6591,10 +6595,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6605,7 +6609,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6617,16 +6621,16 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6676,25 +6680,25 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>36</v>
@@ -6705,10 +6709,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6731,13 +6735,13 @@
         <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6788,7 +6792,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6800,13 +6804,13 @@
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>36</v>
@@ -6817,10 +6821,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6831,7 +6835,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
@@ -6843,13 +6847,13 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6900,13 +6904,13 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
@@ -6918,7 +6922,7 @@
         <v>36</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>36</v>
@@ -6929,14 +6933,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6955,16 +6959,16 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7014,7 +7018,7 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -7026,13 +7030,13 @@
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -7043,14 +7047,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7063,25 +7067,25 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>36</v>
@@ -7130,7 +7134,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -7142,13 +7146,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7159,10 +7163,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7170,10 +7174,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -7185,13 +7189,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7242,25 +7246,25 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7271,10 +7275,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7285,7 +7289,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>36</v>
@@ -7297,13 +7301,13 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7354,25 +7358,25 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>36</v>
@@ -7383,10 +7387,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7397,7 +7401,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7409,13 +7413,13 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7466,25 +7470,25 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>36</v>
@@ -7495,10 +7499,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7521,17 +7525,17 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>36</v>
@@ -7580,7 +7584,7 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -7592,13 +7596,13 @@
         <v>36</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1426,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1439,10 +1559,11 @@
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="98.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1453,600 +1574,608 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="214.9453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="64.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>36</v>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2054,5565 +2183,5679 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>36</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>36</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>36</v>
+        <v>356</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7622,7 +7865,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="395">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -319,10 +319,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
@@ -342,6 +349,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PractitionerRole.language</t>
   </si>
   <si>
@@ -419,26 +429,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -468,10 +485,6 @@
     <t>The roleStatus extension has been flagged for further implementer feedback regarding whether it should be considered a modifier extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RoleStatus</t>
   </si>
   <si>
@@ -558,10 +571,6 @@
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -569,9 +578,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -597,13 +603,16 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -650,7 +659,15 @@
     <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>PRD-8/9 / PRA-5.4</t>
@@ -675,6 +692,13 @@
     <t>Practitioner that is able to provide the defined services for the organization.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
@@ -710,19 +734,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.organization.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -955,6 +970,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -967,8 +985,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>XTN.3</t>
@@ -1202,6 +1220,9 @@
   </si>
   <si>
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>PractitionerRole.availabilityExceptions</t>
@@ -1229,6 +1250,9 @@
     <t>Organizations have multiple systems that provide various services and ,ay also be different for practitioners too.  So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1615,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2038,16 +2062,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -2058,10 +2082,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2084,16 +2108,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2143,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2152,16 +2176,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2172,10 +2196,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2198,16 +2222,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2233,13 +2257,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2257,7 +2281,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2266,16 +2290,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2286,14 +2310,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2312,16 +2336,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2371,7 +2395,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2380,16 +2404,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2400,14 +2424,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2426,16 +2450,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2485,7 +2509,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2503,7 +2527,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2514,14 +2538,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2540,15 +2564,17 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2585,17 +2611,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2604,16 +2632,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2624,16 +2652,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2652,16 +2680,16 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2711,7 +2739,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2720,16 +2748,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2740,16 +2768,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2768,15 +2796,17 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2825,7 +2855,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2834,16 +2864,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2854,13 +2884,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2882,13 +2912,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2939,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2948,10 +2978,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2968,13 +2998,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2996,13 +3026,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3053,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3062,10 +3092,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3082,13 +3112,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3110,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3167,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3176,10 +3206,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3196,13 +3226,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3224,13 +3254,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3281,7 +3311,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3290,10 +3320,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3310,14 +3340,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3336,19 +3366,19 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3385,19 +3415,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3406,16 +3436,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3426,10 +3456,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3449,22 +3479,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3513,7 +3543,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3522,30 +3552,30 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3568,70 +3598,70 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3640,30 +3670,30 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3686,17 +3716,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3745,7 +3777,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3754,30 +3786,30 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3800,15 +3832,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3857,7 +3891,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3866,16 +3900,16 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3886,10 +3920,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3912,15 +3946,17 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3969,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3978,16 +4014,16 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3998,10 +4034,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4024,13 +4060,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4081,7 +4117,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4099,7 +4135,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4110,14 +4146,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4136,16 +4172,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4183,19 +4219,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4207,13 +4243,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4224,10 +4260,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4250,16 +4286,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4309,7 +4345,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4318,16 +4354,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4338,10 +4374,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4364,16 +4400,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4399,13 +4435,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4423,7 +4459,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4435,13 +4471,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4452,10 +4488,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4478,16 +4514,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4537,7 +4573,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4549,13 +4585,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4566,10 +4602,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4592,16 +4628,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4651,7 +4687,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4663,13 +4699,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4680,10 +4716,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4706,19 +4742,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4743,13 +4779,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4767,7 +4803,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4776,19 +4812,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4796,10 +4832,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4822,16 +4858,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4857,31 +4893,31 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4890,19 +4926,19 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4910,10 +4946,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4936,15 +4972,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4993,7 +5031,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5002,30 +5040,30 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5048,15 +5086,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5105,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5114,16 +5154,16 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5134,10 +5174,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5160,17 +5200,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5219,7 +5259,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5228,19 +5268,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5248,10 +5288,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5274,13 +5314,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5331,7 +5371,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5349,7 +5389,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5360,14 +5400,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5386,16 +5426,16 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5433,19 +5473,19 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5454,16 +5494,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5474,10 +5514,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5491,7 +5531,7 @@
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
@@ -5500,15 +5540,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5533,13 +5575,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5557,7 +5599,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5566,19 +5608,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5586,10 +5628,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5612,19 +5654,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5673,7 +5715,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5682,19 +5724,19 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5702,10 +5744,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5728,19 +5770,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5765,13 +5807,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5789,7 +5831,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5798,19 +5840,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5818,10 +5860,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5844,16 +5886,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5903,7 +5945,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5912,16 +5954,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5932,10 +5974,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5958,15 +6000,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6015,7 +6059,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6024,19 +6068,19 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6044,10 +6088,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6070,16 +6114,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6129,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6138,16 +6182,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6158,10 +6202,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6184,13 +6228,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6241,7 +6285,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6259,7 +6303,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6270,14 +6314,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6296,16 +6340,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6343,19 +6387,19 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6364,16 +6408,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6384,14 +6428,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6410,19 +6454,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6471,7 +6515,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6480,16 +6524,16 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6500,10 +6544,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6526,15 +6570,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6559,13 +6605,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6583,7 +6629,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6592,16 +6638,16 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6612,10 +6658,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6638,13 +6684,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6695,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6704,16 +6750,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6724,10 +6770,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6750,16 +6796,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6809,7 +6855,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6818,16 +6864,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6838,10 +6884,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6864,16 +6910,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6923,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6932,16 +6978,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6952,10 +6998,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6978,13 +7024,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7035,7 +7081,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7044,16 +7090,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7064,10 +7110,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7090,13 +7136,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7147,7 +7193,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7165,7 +7211,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7176,14 +7222,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7202,16 +7248,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7249,19 +7295,19 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7270,16 +7316,16 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7290,14 +7336,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7316,19 +7362,19 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7377,7 +7423,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7386,16 +7432,16 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7406,10 +7452,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7432,15 +7478,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7489,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7498,16 +7546,16 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7518,10 +7566,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7544,15 +7592,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7601,7 +7651,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7610,16 +7660,16 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7630,10 +7680,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7656,15 +7706,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7713,7 +7765,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7722,16 +7774,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7742,10 +7794,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7768,17 +7820,19 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7881,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7836,16 +7890,16 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-role-relationships.xlsx
+++ b/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
